--- a/output/StructureDefinition-swimming-metrics-observation.xlsx
+++ b/output/StructureDefinition-swimming-metrics-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13701" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13701" uniqueCount="862">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -687,7 +687,7 @@
   &lt;coding&gt;
     &lt;system value="http://snomed.info/sct"/&gt;
     &lt;code value="20461001"/&gt;
-    &lt;display value="Swimming (observable entity)"/&gt;
+    &lt;display value="Swimming (qualifier value)"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2218,6 +2218,9 @@
     <t>avgPace</t>
   </si>
   <si>
+    <t>Average pace in seconds (interpreted as seconds per 100 meters)</t>
+  </si>
+  <si>
     <t>Observation.component:avgPace.id</t>
   </si>
   <si>
@@ -2234,7 +2237,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/swimming-metrics-cs"/&gt;
     &lt;code value="avg-pace"/&gt;
-    &lt;display value="Average Pace (per 100m)"/&gt;
+    &lt;display value="Average Pace"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2263,7 +2266,7 @@
     <t>Observation.component:avgPace.value[x].code</t>
   </si>
   <si>
-    <t>s/100m</t>
+    <t>s</t>
   </si>
   <si>
     <t>Observation.component:avgPace.dataAbsentReason</t>
@@ -2279,6 +2282,9 @@
   </si>
   <si>
     <t>bestPace</t>
+  </si>
+  <si>
+    <t>Best pace in seconds (interpreted as seconds per 100 meters)</t>
   </si>
   <si>
     <t>Observation.component:bestPace.id</t>
@@ -2297,7 +2303,7 @@
   &lt;coding&gt;
     &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/swimming-metrics-cs"/&gt;
     &lt;code value="best-pace"/&gt;
-    &lt;display value="Best Pace (per 100m)"/&gt;
+    &lt;display value="Best Pace"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -27598,7 +27604,7 @@
         <v>356</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>429</v>
+        <v>684</v>
       </c>
       <c r="M202" t="s" s="2">
         <v>430</v>
@@ -27691,7 +27697,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>437</v>
@@ -27809,7 +27815,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>438</v>
@@ -27929,7 +27935,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>439</v>
@@ -28051,7 +28057,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>440</v>
@@ -28099,7 +28105,7 @@
         <v>87</v>
       </c>
       <c r="S206" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="T206" t="s" s="2">
         <v>87</v>
@@ -28173,7 +28179,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>445</v>
@@ -28295,7 +28301,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>467</v>
@@ -28413,7 +28419,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>469</v>
@@ -28533,7 +28539,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>473</v>
@@ -28655,7 +28661,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>483</v>
@@ -28777,7 +28783,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>494</v>
@@ -28897,7 +28903,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>502</v>
@@ -29017,7 +29023,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>511</v>
@@ -29065,7 +29071,7 @@
         <v>87</v>
       </c>
       <c r="S214" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="T214" t="s" s="2">
         <v>87</v>
@@ -29139,7 +29145,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>449</v>
@@ -29261,7 +29267,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>453</v>
@@ -29383,7 +29389,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>454</v>
@@ -29505,13 +29511,13 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>428</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D218" t="s" s="2">
         <v>87</v>
@@ -29536,7 +29542,7 @@
         <v>356</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>429</v>
+        <v>704</v>
       </c>
       <c r="M218" t="s" s="2">
         <v>430</v>
@@ -29629,7 +29635,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>437</v>
@@ -29747,7 +29753,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>438</v>
@@ -29867,7 +29873,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>439</v>
@@ -29989,7 +29995,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>440</v>
@@ -30037,7 +30043,7 @@
         <v>87</v>
       </c>
       <c r="S222" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="T222" t="s" s="2">
         <v>87</v>
@@ -30111,7 +30117,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>445</v>
@@ -30233,7 +30239,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>467</v>
@@ -30351,7 +30357,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>469</v>
@@ -30471,7 +30477,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>473</v>
@@ -30593,7 +30599,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>483</v>
@@ -30715,7 +30721,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>494</v>
@@ -30835,7 +30841,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>502</v>
@@ -30955,7 +30961,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>511</v>
@@ -31003,7 +31009,7 @@
         <v>87</v>
       </c>
       <c r="S230" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="T230" t="s" s="2">
         <v>87</v>
@@ -31077,7 +31083,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>449</v>
@@ -31199,7 +31205,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>453</v>
@@ -31321,7 +31327,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>454</v>
@@ -31443,13 +31449,13 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>428</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D234" t="s" s="2">
         <v>87</v>
@@ -31567,7 +31573,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>437</v>
@@ -31685,7 +31691,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>438</v>
@@ -31805,7 +31811,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>439</v>
@@ -31927,7 +31933,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>440</v>
@@ -31975,7 +31981,7 @@
         <v>87</v>
       </c>
       <c r="S238" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="T238" t="s" s="2">
         <v>87</v>
@@ -32049,7 +32055,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>445</v>
@@ -32171,7 +32177,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>467</v>
@@ -32289,7 +32295,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>469</v>
@@ -32409,7 +32415,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>473</v>
@@ -32531,7 +32537,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>483</v>
@@ -32653,7 +32659,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>494</v>
@@ -32773,7 +32779,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>502</v>
@@ -32893,7 +32899,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>511</v>
@@ -32941,7 +32947,7 @@
         <v>87</v>
       </c>
       <c r="S246" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="T246" t="s" s="2">
         <v>87</v>
@@ -33015,7 +33021,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>449</v>
@@ -33137,7 +33143,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>453</v>
@@ -33259,7 +33265,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>454</v>
@@ -33381,13 +33387,13 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>428</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D250" t="s" s="2">
         <v>87</v>
@@ -33505,7 +33511,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>437</v>
@@ -33623,7 +33629,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>438</v>
@@ -33743,7 +33749,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>439</v>
@@ -33865,7 +33871,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>440</v>
@@ -33913,7 +33919,7 @@
         <v>87</v>
       </c>
       <c r="S254" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="T254" t="s" s="2">
         <v>87</v>
@@ -33987,7 +33993,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>445</v>
@@ -34109,7 +34115,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>467</v>
@@ -34227,7 +34233,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>469</v>
@@ -34347,7 +34353,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>473</v>
@@ -34469,7 +34475,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>483</v>
@@ -34591,7 +34597,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>494</v>
@@ -34711,7 +34717,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>502</v>
@@ -34831,7 +34837,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>511</v>
@@ -34953,7 +34959,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>449</v>
@@ -35075,7 +35081,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>453</v>
@@ -35197,7 +35203,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>454</v>
@@ -35319,13 +35325,13 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>428</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D266" t="s" s="2">
         <v>87</v>
@@ -35443,7 +35449,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>437</v>
@@ -35561,7 +35567,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>438</v>
@@ -35681,7 +35687,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>439</v>
@@ -35803,7 +35809,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>440</v>
@@ -35851,7 +35857,7 @@
         <v>87</v>
       </c>
       <c r="S270" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="T270" t="s" s="2">
         <v>87</v>
@@ -35925,7 +35931,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>445</v>
@@ -35992,7 +35998,7 @@
       </c>
       <c r="Y271" s="2"/>
       <c r="Z271" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AA271" t="s" s="2">
         <v>87</v>
@@ -36045,7 +36051,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>449</v>
@@ -36167,7 +36173,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>453</v>
@@ -36289,7 +36295,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>454</v>
@@ -36411,13 +36417,13 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>428</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D275" t="s" s="2">
         <v>87</v>
@@ -36535,7 +36541,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>437</v>
@@ -36653,7 +36659,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>438</v>
@@ -36773,7 +36779,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>439</v>
@@ -36895,7 +36901,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>440</v>
@@ -36943,7 +36949,7 @@
         <v>87</v>
       </c>
       <c r="S279" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="T279" t="s" s="2">
         <v>87</v>
@@ -37017,7 +37023,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>445</v>
@@ -37139,7 +37145,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>467</v>
@@ -37257,7 +37263,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>469</v>
@@ -37377,7 +37383,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>473</v>
@@ -37499,7 +37505,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>483</v>
@@ -37621,7 +37627,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>494</v>
@@ -37741,7 +37747,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>502</v>
@@ -37861,7 +37867,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>511</v>
@@ -37909,7 +37915,7 @@
         <v>87</v>
       </c>
       <c r="S287" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="T287" t="s" s="2">
         <v>87</v>
@@ -37983,7 +37989,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>449</v>
@@ -38105,7 +38111,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>453</v>
@@ -38227,7 +38233,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>454</v>
@@ -38349,13 +38355,13 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>428</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D291" t="s" s="2">
         <v>87</v>
@@ -38473,7 +38479,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>437</v>
@@ -38591,7 +38597,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>438</v>
@@ -38711,7 +38717,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>439</v>
@@ -38833,7 +38839,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>440</v>
@@ -38881,7 +38887,7 @@
         <v>87</v>
       </c>
       <c r="S295" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="T295" t="s" s="2">
         <v>87</v>
@@ -38955,7 +38961,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>445</v>
@@ -39077,7 +39083,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>467</v>
@@ -39195,7 +39201,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>469</v>
@@ -39315,7 +39321,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>473</v>
@@ -39437,7 +39443,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>483</v>
@@ -39559,7 +39565,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>494</v>
@@ -39679,7 +39685,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>502</v>
@@ -39799,7 +39805,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>511</v>
@@ -39847,7 +39853,7 @@
         <v>87</v>
       </c>
       <c r="S303" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="T303" t="s" s="2">
         <v>87</v>
@@ -39921,7 +39927,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>449</v>
@@ -40043,7 +40049,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>453</v>
@@ -40165,7 +40171,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>454</v>
@@ -40287,13 +40293,13 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>428</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D307" t="s" s="2">
         <v>87</v>
@@ -40411,7 +40417,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>437</v>
@@ -40529,7 +40535,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>438</v>
@@ -40649,7 +40655,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>439</v>
@@ -40771,7 +40777,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>440</v>
@@ -40819,7 +40825,7 @@
         <v>87</v>
       </c>
       <c r="S311" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="T311" t="s" s="2">
         <v>87</v>
@@ -40893,7 +40899,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>445</v>
@@ -41015,7 +41021,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>467</v>
@@ -41133,7 +41139,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>469</v>
@@ -41253,7 +41259,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>473</v>
@@ -41375,7 +41381,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>483</v>
@@ -41497,7 +41503,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>494</v>
@@ -41617,7 +41623,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>502</v>
@@ -41737,7 +41743,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>511</v>
@@ -41859,7 +41865,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>449</v>
@@ -41981,7 +41987,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>453</v>
@@ -42103,7 +42109,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>454</v>
@@ -42225,13 +42231,13 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>428</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D323" t="s" s="2">
         <v>87</v>
@@ -42349,7 +42355,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>437</v>
@@ -42467,7 +42473,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>438</v>
@@ -42587,7 +42593,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>439</v>
@@ -42709,7 +42715,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>440</v>
@@ -42757,7 +42763,7 @@
         <v>87</v>
       </c>
       <c r="S327" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="T327" t="s" s="2">
         <v>87</v>
@@ -42831,7 +42837,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>445</v>
@@ -42953,7 +42959,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>467</v>
@@ -43071,7 +43077,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>469</v>
@@ -43191,7 +43197,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>473</v>
@@ -43313,7 +43319,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>483</v>
@@ -43435,7 +43441,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>494</v>
@@ -43555,7 +43561,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>502</v>
@@ -43675,7 +43681,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>511</v>
@@ -43797,7 +43803,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>449</v>
@@ -43919,7 +43925,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>453</v>
@@ -44041,7 +44047,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>454</v>
@@ -44163,13 +44169,13 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>428</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D339" t="s" s="2">
         <v>87</v>
@@ -44287,7 +44293,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>437</v>
@@ -44405,7 +44411,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>438</v>
@@ -44525,7 +44531,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>439</v>
@@ -44647,7 +44653,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>440</v>
@@ -44695,7 +44701,7 @@
         <v>87</v>
       </c>
       <c r="S343" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="T343" t="s" s="2">
         <v>87</v>
@@ -44769,7 +44775,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>445</v>
@@ -44891,7 +44897,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>467</v>
@@ -45009,7 +45015,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>469</v>
@@ -45129,7 +45135,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>473</v>
@@ -45251,7 +45257,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>483</v>
@@ -45373,7 +45379,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>494</v>
@@ -45493,7 +45499,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>502</v>
@@ -45613,7 +45619,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>511</v>
@@ -45661,7 +45667,7 @@
         <v>87</v>
       </c>
       <c r="S351" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="T351" t="s" s="2">
         <v>87</v>
@@ -45735,7 +45741,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>449</v>
@@ -45857,7 +45863,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>453</v>
@@ -45979,7 +45985,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>454</v>
